--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsRespirationRegularityValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsRespirationRegularityValueSet</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-30T07:17:09+00:00</t>
+    <t>2025-06-10T12:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:24:45+00:00</t>
+    <t>2025-06-10T12:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T12:59:00+00:00</t>
+    <t>2025-06-10T16:00:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T16:00:45+00:00</t>
+    <t>2025-06-14T07:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-14T07:54:50+00:00</t>
+    <t>2025-09-04T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T11:54:03+00:00</t>
+    <t>2025-09-04T12:07:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:07:27+00:00</t>
+    <t>2025-09-04T12:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:18:12+00:00</t>
+    <t>2025-09-05T05:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T05:00:48+00:00</t>
+    <t>2025-09-05T14:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:59:25+00:00</t>
+    <t>2025-09-08T05:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T05:32:48+00:00</t>
+    <t>2025-09-08T06:02:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:02:14+00:00</t>
+    <t>2025-09-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:35:20+00:00</t>
+    <t>2025-09-08T06:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:43:38+00:00</t>
+    <t>2025-09-08T08:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
+++ b/VitalSigns/TestBuild/ValueSet-NoDomainVitalSignsRespirationRegularityValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T08:35:21+00:00</t>
+    <t>2025-09-08T08:52:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
